--- a/data/trans_dic/P1413-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1413-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02442652651407449</v>
+        <v>0.02264961186397441</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01176863496266337</v>
+        <v>0.01289234306924864</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02110354930147407</v>
+        <v>0.02099898476467135</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03172680910776474</v>
+        <v>0.03120921506150428</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0247280736906915</v>
+        <v>0.02252271678387142</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01282732597194606</v>
+        <v>0.01424001868479091</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05731175138854022</v>
+        <v>0.05568157987147977</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03198739448942599</v>
+        <v>0.03176630141435256</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02012555120884714</v>
+        <v>0.02114918439511331</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.008507447302475364</v>
+        <v>0.008684185428307543</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04559061209458382</v>
+        <v>0.04791584689244455</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06283627393649971</v>
+        <v>0.05926760676457667</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.044810178206491</v>
+        <v>0.04417358504160268</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01963745509738639</v>
+        <v>0.01843942347932778</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1028063090746565</v>
+        <v>0.09890961550649544</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06998665226406482</v>
+        <v>0.06946965269926977</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06326324348898127</v>
+        <v>0.06039294080122014</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04657891074472066</v>
+        <v>0.04466505763352698</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1521505531182396</v>
+        <v>0.1510352399348269</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05850701906117241</v>
+        <v>0.05769587805260291</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04478187578469945</v>
+        <v>0.04492170745307035</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02523931816931771</v>
+        <v>0.02653395230928168</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1033129728515147</v>
+        <v>0.104691718172693</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.0280448348520712</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.07042710557807105</v>
+        <v>0.07042710557807104</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.0968659655671201</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05205635172753281</v>
+        <v>0.0539183445789992</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03254738647722143</v>
+        <v>0.03199341791303683</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01513123177916477</v>
+        <v>0.01544753871116713</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04497654348675995</v>
+        <v>0.04229422413208823</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07548338069705134</v>
+        <v>0.07647727220706088</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06056024729375961</v>
+        <v>0.06017495843685611</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03832395252409143</v>
+        <v>0.03923136958562014</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.08511433621176431</v>
+        <v>0.08157400194056061</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06908855253307593</v>
+        <v>0.06786715353588246</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.05070119858086645</v>
+        <v>0.05085012751180183</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0314908903485273</v>
+        <v>0.03089700032966735</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.07136120201878372</v>
+        <v>0.07289070041694072</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09023802933472237</v>
+        <v>0.0901196927908334</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06643293908713936</v>
+        <v>0.06832672774527083</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04672773291674529</v>
+        <v>0.04760585759089633</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.105324601515684</v>
+        <v>0.104810157348243</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.123519462105879</v>
+        <v>0.1237080753675708</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1057704076598243</v>
+        <v>0.1066362473153998</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07652998358799307</v>
+        <v>0.07822928860104356</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1435476947968246</v>
+        <v>0.142169846977214</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.09841227394834927</v>
+        <v>0.099169739046335</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.08053740038158778</v>
+        <v>0.08050157844430748</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05601898809521282</v>
+        <v>0.05463874119752882</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1134717318704974</v>
+        <v>0.1149856718116508</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.0680938591775475</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1037011872929192</v>
+        <v>0.1037011872929193</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1400897890659712</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1165424318511551</v>
+        <v>0.1166379831490615</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04422852579991876</v>
+        <v>0.045845176788185</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04935690635895929</v>
+        <v>0.04937951917158791</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.07986255494671031</v>
+        <v>0.08231351054266459</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1150025276922189</v>
+        <v>0.1150189717312691</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1055969618006674</v>
+        <v>0.1065413500186511</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06783744853690157</v>
+        <v>0.06679025254860779</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1831471334879986</v>
+        <v>0.1815258251540177</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1233893102520859</v>
+        <v>0.1236479090449099</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.08148708432234329</v>
+        <v>0.0818258738742729</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.06465490943165789</v>
+        <v>0.06430389704427103</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1384280111945075</v>
+        <v>0.1379390718418372</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1705506038522841</v>
+        <v>0.176644868898954</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08256245723676571</v>
+        <v>0.08367775404339185</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08921080586206173</v>
+        <v>0.090296380162354</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1315292942793045</v>
+        <v>0.1352910269823261</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1687553100407082</v>
+        <v>0.1669089444188677</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1564949552103486</v>
+        <v>0.1580288205933914</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.111563544505263</v>
+        <v>0.1105179584368892</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2384291674005106</v>
+        <v>0.2400200273949018</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1625224427487465</v>
+        <v>0.1620671109151592</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1136802220549045</v>
+        <v>0.1134679815241001</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.09444053860721395</v>
+        <v>0.09320797251517959</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.17523953533975</v>
+        <v>0.1744894063060732</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.1328355333179453</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2862095611667722</v>
+        <v>0.2862095611667723</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.210813011639168</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1614221238699307</v>
+        <v>0.1558030233522594</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06844229152756728</v>
+        <v>0.0667783039459565</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06982849258616095</v>
+        <v>0.07055770685163502</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1735268743130715</v>
+        <v>0.1717083928928306</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1966050856064857</v>
+        <v>0.1931336603964333</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1403675804398263</v>
+        <v>0.1444771927177196</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1068788239868101</v>
+        <v>0.1033232448392442</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2632543881828744</v>
+        <v>0.2622088471864927</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1853073368324218</v>
+        <v>0.1854524659322183</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1129479861789201</v>
+        <v>0.1114588482688946</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.09575161372905844</v>
+        <v>0.09320019169598109</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2260656221697432</v>
+        <v>0.2231276729019377</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2356921088154107</v>
+        <v>0.2256645715294477</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1174675050347305</v>
+        <v>0.1190302106210697</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1189486544884246</v>
+        <v>0.11674677609758</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2310092975570366</v>
+        <v>0.2347812479288048</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2692050736334005</v>
+        <v>0.2673990575810671</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2070207555262799</v>
+        <v>0.2085066747380521</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1618385569423692</v>
+        <v>0.1596044389920229</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3175744281431144</v>
+        <v>0.3133814206445742</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2349979744338302</v>
+        <v>0.237995883711924</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.151473473307361</v>
+        <v>0.1531851807026225</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1309832840545816</v>
+        <v>0.1291541862551674</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2674144572747746</v>
+        <v>0.2661337634655158</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.2092971785548953</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.3924533197899668</v>
+        <v>0.3924533197899669</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.282435087494725</v>
@@ -1241,7 +1241,7 @@
         <v>0.1675188282352434</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.328398045634663</v>
+        <v>0.3283980456346631</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2562839381689375</v>
+        <v>0.2594295253186659</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.09612114230169891</v>
+        <v>0.09473269522693441</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09535270435241515</v>
+        <v>0.09102155108401119</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2321886954168692</v>
+        <v>0.2292726153584465</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2192699549882535</v>
+        <v>0.2239095451327553</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2234456717768237</v>
+        <v>0.2197530518616136</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1735292184116541</v>
+        <v>0.1732328224959819</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3645542350911884</v>
+        <v>0.3600159277022424</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2511047479061519</v>
+        <v>0.2500188184268841</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1655150813360969</v>
+        <v>0.1666769919510322</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1446090431020406</v>
+        <v>0.1413542168592247</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3069822428004675</v>
+        <v>0.3056323993022773</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.349011436994849</v>
+        <v>0.3521207774232365</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1561926454752703</v>
+        <v>0.1570169424698503</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1582401287869458</v>
+        <v>0.1556508323732327</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2965590766936231</v>
+        <v>0.2998540225965625</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3038754503376864</v>
+        <v>0.3029026440456774</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3052905729616945</v>
+        <v>0.3059827832135614</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2542302993288517</v>
+        <v>0.2513686483580032</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4264476185807064</v>
+        <v>0.4215962891466139</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3130672224400523</v>
+        <v>0.3154263446295605</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2218450434036864</v>
+        <v>0.2229002809631894</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1937788111745101</v>
+        <v>0.1925183948543512</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3504274655692173</v>
+        <v>0.3519686379057059</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.2123967365451179</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.4670635454184803</v>
+        <v>0.4670635454184802</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.3223308335483439</v>
@@ -1377,7 +1377,7 @@
         <v>0.1752488917321894</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.3723048175378627</v>
+        <v>0.3723048175378628</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2171110658863263</v>
+        <v>0.2170102715001653</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1435791536401284</v>
+        <v>0.1475562963646788</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.09998022759514955</v>
+        <v>0.1002829992306587</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.235737187542231</v>
+        <v>0.2327812790472298</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3240897857843514</v>
+        <v>0.3274039289992002</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2637175512768409</v>
+        <v>0.2642115075971459</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.172544712322697</v>
+        <v>0.17408175993004</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.4331571818730812</v>
+        <v>0.4315402350424537</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2896430674151786</v>
+        <v>0.2888623112960804</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2193495946692666</v>
+        <v>0.2242606379631809</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1468889927073395</v>
+        <v>0.1495505098286752</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3480337125455277</v>
+        <v>0.3475252810880254</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3156163144743849</v>
+        <v>0.3162033222159304</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2404191751182269</v>
+        <v>0.2395594268498527</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1767786555523916</v>
+        <v>0.1753157226852087</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3076225990284447</v>
+        <v>0.3082235383042654</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4169907562896101</v>
+        <v>0.4203776252630793</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.358712680964253</v>
+        <v>0.3608179363976501</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2580359186156658</v>
+        <v>0.2572379757613352</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.504320433584977</v>
+        <v>0.499479637221599</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3542293350937726</v>
+        <v>0.3585922341147043</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2885337419943647</v>
+        <v>0.2915424060695425</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2072027080454025</v>
+        <v>0.2041884542510627</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3984541865268003</v>
+        <v>0.4001062941526071</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.3046113362741747</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.5780034075005168</v>
+        <v>0.5780034075005167</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.3533955728868104</v>
@@ -1513,7 +1513,7 @@
         <v>0.2618069284152191</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.5059028808864887</v>
+        <v>0.5059028808864886</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2875953144670639</v>
+        <v>0.2899267596347499</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.168670197288069</v>
+        <v>0.1652454832998227</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1530748504909554</v>
+        <v>0.151374451383387</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3511923069454151</v>
+        <v>0.3531612573492213</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3051924725970485</v>
+        <v>0.3105467510090504</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3397806213292274</v>
+        <v>0.3400839417678171</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2539722880141244</v>
+        <v>0.2543474519471705</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.5463834089340285</v>
+        <v>0.5441443206157227</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3120784141809587</v>
+        <v>0.3115036225320825</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2864780720979251</v>
+        <v>0.2877223835980507</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2285692531806072</v>
+        <v>0.2283848443887277</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.4733432874462801</v>
+        <v>0.4789058884586951</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4108919224888368</v>
+        <v>0.4121796761729352</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2817694515961948</v>
+        <v>0.2783517592673305</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2474097680994415</v>
+        <v>0.2447473372040318</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4426012331829854</v>
+        <v>0.4453556360388254</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4165991260762012</v>
+        <v>0.4178299311523345</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4453139668943524</v>
+        <v>0.4425990451326378</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3566918551881864</v>
+        <v>0.3543623357765313</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6124315119459555</v>
+        <v>0.6101280618451993</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3921296557876144</v>
+        <v>0.3945173725512012</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3606524543097899</v>
+        <v>0.3620092510675098</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3008773466632212</v>
+        <v>0.3022798696922875</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.530791172334024</v>
+        <v>0.533564017370724</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.1390138869810334</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.3060317936661508</v>
+        <v>0.3060317936661509</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.1773607483701837</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1484779204118798</v>
+        <v>0.1504657268873401</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.0807917652590808</v>
+        <v>0.08057147521106037</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.07234534503102853</v>
+        <v>0.07147386150837934</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1727151730914362</v>
+        <v>0.1734037009393283</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1784936176616126</v>
+        <v>0.1788327100148702</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1689659605699271</v>
+        <v>0.1701255694608248</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1280404166860951</v>
+        <v>0.1271055238490895</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.2916518991047409</v>
+        <v>0.2937358455596036</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.168033460816211</v>
+        <v>0.1673790186796687</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1280945850931611</v>
+        <v>0.1284465322192595</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1033774125033427</v>
+        <v>0.1031841270932156</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2371804467427434</v>
+        <v>0.238183882976242</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1752205520105942</v>
+        <v>0.1762209470458292</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.09989017190238039</v>
+        <v>0.1002953473902994</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.09184800556334456</v>
+        <v>0.09129643426613057</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.19925979089235</v>
+        <v>0.1994148116023773</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2058547955038011</v>
+        <v>0.2062084375556609</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1956526500634283</v>
+        <v>0.1949662812637053</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1521388044899166</v>
+        <v>0.1519947269217912</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3177675983608105</v>
+        <v>0.3189213233382468</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1873441785768108</v>
+        <v>0.1856962932207405</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1449653714807951</v>
+        <v>0.1455793343935314</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.118968511710014</v>
+        <v>0.1186218275903254</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2572324275934349</v>
+        <v>0.2574322023582393</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>12068</v>
+        <v>11190</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5345</v>
+        <v>5855</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>8606</v>
+        <v>8563</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>14832</v>
+        <v>14590</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>10639</v>
+        <v>9690</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5076</v>
+        <v>5636</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>20776</v>
+        <v>20185</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>30758</v>
+        <v>30545</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>17799</v>
+        <v>18704</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>6935</v>
+        <v>7080</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>35119</v>
+        <v>36910</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>31045</v>
+        <v>29282</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>20350</v>
+        <v>20061</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>8237</v>
+        <v>7735</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>41924</v>
+        <v>40335</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>32718</v>
+        <v>32476</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>27218</v>
+        <v>25983</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>18434</v>
+        <v>17676</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>55156</v>
+        <v>54752</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>56258</v>
+        <v>55478</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>39604</v>
+        <v>39728</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>20576</v>
+        <v>21631</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>79582</v>
+        <v>80645</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>38287</v>
+        <v>39656</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>22363</v>
+        <v>21982</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>8935</v>
+        <v>9122</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>21339</v>
+        <v>20067</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>47214</v>
+        <v>47836</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>36957</v>
+        <v>36722</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>21597</v>
+        <v>22109</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>42649</v>
+        <v>40875</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>94028</v>
+        <v>92366</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>65777</v>
+        <v>65970</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>36342</v>
+        <v>35656</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>69616</v>
+        <v>71108</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>66369</v>
+        <v>66282</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>45645</v>
+        <v>46946</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>27593</v>
+        <v>28111</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>49972</v>
+        <v>49728</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>77261</v>
+        <v>77379</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>64547</v>
+        <v>65075</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>43128</v>
+        <v>44086</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>71929</v>
+        <v>71239</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>133937</v>
+        <v>134968</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>104485</v>
+        <v>104438</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>64648</v>
+        <v>63055</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>110696</v>
+        <v>112173</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>74432</v>
+        <v>74493</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>30158</v>
+        <v>31260</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>33025</v>
+        <v>33040</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>49510</v>
+        <v>51030</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>79322</v>
+        <v>79334</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>74929</v>
+        <v>75599</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>44867</v>
+        <v>44174</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>113824</v>
+        <v>112816</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>163912</v>
+        <v>164255</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>113384</v>
+        <v>113856</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>86022</v>
+        <v>85555</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>171849</v>
+        <v>171242</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>108925</v>
+        <v>112817</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>56296</v>
+        <v>57057</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>59691</v>
+        <v>60417</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>81541</v>
+        <v>83873</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>116398</v>
+        <v>115124</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>111045</v>
+        <v>112133</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>73787</v>
+        <v>73095</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>148181</v>
+        <v>149170</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>215897</v>
+        <v>215292</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>158179</v>
+        <v>157884</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>125652</v>
+        <v>124012</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>217548</v>
+        <v>216617</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>83802</v>
+        <v>80885</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>42066</v>
+        <v>41043</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>45113</v>
+        <v>45584</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>121370</v>
+        <v>120099</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>101378</v>
+        <v>99588</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>86223</v>
+        <v>88747</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>69373</v>
+        <v>67065</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>193704</v>
+        <v>192934</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>191754</v>
+        <v>191904</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>138800</v>
+        <v>136970</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>124010</v>
+        <v>120706</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>324458</v>
+        <v>320241</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>122359</v>
+        <v>117153</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>72198</v>
+        <v>73158</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>76847</v>
+        <v>75424</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>161576</v>
+        <v>164214</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>138813</v>
+        <v>137882</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>127165</v>
+        <v>128078</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>105046</v>
+        <v>103596</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>233673</v>
+        <v>230587</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>243173</v>
+        <v>246276</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>186143</v>
+        <v>188246</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>169640</v>
+        <v>167271</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>383803</v>
+        <v>381965</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>99108</v>
+        <v>100324</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>41277</v>
+        <v>40681</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>45571</v>
+        <v>43501</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>141254</v>
+        <v>139480</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>88582</v>
+        <v>90456</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>100059</v>
+        <v>98405</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>86218</v>
+        <v>86071</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>221199</v>
+        <v>218445</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>198548</v>
+        <v>197689</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>145195</v>
+        <v>146214</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>140960</v>
+        <v>137787</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>373021</v>
+        <v>371381</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>134966</v>
+        <v>136169</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>67074</v>
+        <v>67428</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>75626</v>
+        <v>74388</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>180414</v>
+        <v>182419</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>122761</v>
+        <v>122368</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>136709</v>
+        <v>137019</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>126314</v>
+        <v>124892</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>258753</v>
+        <v>255810</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>247541</v>
+        <v>249406</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>194609</v>
+        <v>195535</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>188889</v>
+        <v>187661</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>425813</v>
+        <v>427686</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>63523</v>
+        <v>63494</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>44479</v>
+        <v>45711</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>33426</v>
+        <v>33528</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>95759</v>
+        <v>94558</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>111141</v>
+        <v>112278</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>93355</v>
+        <v>93530</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>65181</v>
+        <v>65761</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>190228</v>
+        <v>189518</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>184073</v>
+        <v>183577</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>145600</v>
+        <v>148860</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>104598</v>
+        <v>106494</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>294220</v>
+        <v>293790</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>92344</v>
+        <v>92516</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>74478</v>
+        <v>74212</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>59102</v>
+        <v>58613</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>124960</v>
+        <v>125204</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>143000</v>
+        <v>144162</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>126983</v>
+        <v>127728</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>97476</v>
+        <v>97175</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>221480</v>
+        <v>219354</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>225119</v>
+        <v>227891</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>191524</v>
+        <v>193521</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>147547</v>
+        <v>145401</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>336844</v>
+        <v>338241</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>60361</v>
+        <v>60851</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>42142</v>
+        <v>41287</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>39340</v>
+        <v>38903</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>108939</v>
+        <v>109550</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>101906</v>
+        <v>103694</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>132168</v>
+        <v>132286</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>101632</v>
+        <v>101782</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>253855</v>
+        <v>252814</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>169705</v>
+        <v>169393</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>183011</v>
+        <v>183806</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>150208</v>
+        <v>150087</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>366750</v>
+        <v>371060</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>86239</v>
+        <v>86510</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>70400</v>
+        <v>69546</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>63584</v>
+        <v>62900</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>137294</v>
+        <v>138148</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>139106</v>
+        <v>139517</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>173218</v>
+        <v>172162</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>142737</v>
+        <v>141805</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>284541</v>
+        <v>283471</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>213237</v>
+        <v>214535</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>230396</v>
+        <v>231262</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>197727</v>
+        <v>198648</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>411261</v>
+        <v>413409</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>486494</v>
+        <v>493007</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>276856</v>
+        <v>276101</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>245565</v>
+        <v>242607</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>609062</v>
+        <v>611490</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>603165</v>
+        <v>604311</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>600691</v>
+        <v>604813</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>453845</v>
+        <v>450531</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>1088278</v>
+        <v>1096054</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1118387</v>
+        <v>1114031</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>894341</v>
+        <v>896798</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>717325</v>
+        <v>715984</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1721414</v>
+        <v>1728697</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>574118</v>
+        <v>577396</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>342302</v>
+        <v>343690</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>311764</v>
+        <v>309892</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>702669</v>
+        <v>703216</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>695624</v>
+        <v>696819</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>695564</v>
+        <v>693124</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>539262</v>
+        <v>538752</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>1185727</v>
+        <v>1190032</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1246914</v>
+        <v>1235946</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1012130</v>
+        <v>1016417</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>825510</v>
+        <v>823104</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1866948</v>
+        <v>1868398</v>
       </c>
     </row>
     <row r="36">
